--- a/Assets/RealFram/Data/Excel/EffectData.xlsx
+++ b/Assets/RealFram/Data/Excel/EffectData.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="390" yWindow="525" windowWidth="26655" windowHeight="7425"/>
   </bookViews>
   <sheets>
-    <sheet name="特效数据表" sheetId="1" r:id="rId1"/>
+    <sheet name="特效数据表" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -26,14 +26,6 @@
   </si>
   <si>
     <t>攻击子弹1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击子弹2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击子弹3号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,8 +45,9 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>/Effects/Prefabs/ef_bl_gun01.prefab</t>
+        <family val="2"/>
+      </rPr>
+      <t>/Effects/Prefabs/testBullet.prefab</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,8 +70,15 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Effects/Prefabs/testBullet.prefab</t>
-    </r>
+      <t>/Effects/Prefabs/enemyBullet.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>绿色子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹爆炸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,8 +100,38 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>/Effects/Prefabs/enemyBullet.prefab</t>
-    </r>
+      <t>/Effects/Prefabs/ef_ms_titan_far_bullet_explode.prefab</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰坦地火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/Effects/Prefabs/ef_ms_titan_red_trajectory.prefab</t>
+    </r>
+  </si>
+  <si>
+    <t>特效持续时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -456,20 +486,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +510,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4001</v>
       </c>
@@ -488,29 +522,52 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/RealFram/Data/Excel/EffectData.xlsx
+++ b/Assets/RealFram/Data/Excel/EffectData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
   </si>
@@ -132,6 +132,31 @@
   <si>
     <t>特效持续时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assets/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>枪火之地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/Effects/Prefabs/ef_sc_monster_disappear.prefab</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -486,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,6 +595,20 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
